--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_0_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_0_sawtooth_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.73000000000058</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02829734656526317</v>
+        <v>0.3764005478658895</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02829734656526317</v>
+        <v>0.3764005478658895</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>8.077448720604464</v>
+        <v>4.577578995159337</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-0.18876175123318717, 16.343659192442114]</t>
+          <t>[-4.5567050361605475, 13.711863026479222]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.05523523926554152</v>
+        <v>0.3182020900163158</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05523523926554152</v>
+        <v>0.3182020900163158</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.8427896207828471</v>
+        <v>-0.5031579825569237</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.8428426014466197, 1.1572633598809254]</t>
+          <t>[-3.641605898755736, 2.6352899336418885]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.4005348657210037</v>
+        <v>0.7482648491358694</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4005348657210037</v>
+        <v>0.7482648491358694</v>
       </c>
       <c r="T2" t="n">
-        <v>13.50344666407597</v>
+        <v>12.1496260554843</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[9.233299409081162, 17.77359391907077]</t>
+          <t>[7.526854231484894, 16.772397879483712]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>8.824958541708838e-08</v>
+        <v>3.442033573719527e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>8.824958541708838e-08</v>
+        <v>3.442033573719527e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>3.486146146146229</v>
+        <v>2.060460460460508</v>
       </c>
       <c r="Y2" t="n">
-        <v>-4.786946946947063</v>
+        <v>-10.79166166166191</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.75923923923952</v>
+        <v>14.91258258258292</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.99000000000062</v>
+        <v>25.73000000000058</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2347115674567164</v>
+        <v>0.06827688251845399</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2347115674567164</v>
+        <v>0.06827688251845399</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>5.105678366367792</v>
+        <v>9.032108380839528</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-2.8371995815978988, 13.048556314333483]</t>
+          <t>[-1.2591578434518844, 19.32337460513094]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.2020398715164748</v>
+        <v>0.08389561980306026</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2020398715164748</v>
+        <v>0.08389561980306026</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.264210921506157</v>
+        <v>-2.012631930227695</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-5.383790413359084, 0.8553685703467702]</t>
+          <t>[-3.798842768304774, -0.22642109215061534]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.1507312905353813</v>
+        <v>0.02808499684366628</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1507312905353813</v>
+        <v>0.02808499684366628</v>
       </c>
       <c r="T3" t="n">
-        <v>11.83655768446781</v>
+        <v>12.97382987083287</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.695307954594384, 15.977807414341228]</t>
+          <t>[7.545155841381632, 18.402503900284117]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7.162102126923031e-07</v>
+        <v>1.707455987998152e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>7.162102126923031e-07</v>
+        <v>1.707455987998152e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>9.365765765765989</v>
+        <v>8.241841841842028</v>
       </c>
       <c r="Y3" t="n">
-        <v>-3.538178178178262</v>
+        <v>0.9272072072072284</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.26970970971024</v>
+        <v>15.55647647647683</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.99000000000062</v>
+        <v>25.73000000000058</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5448088164494007</v>
+        <v>0.1518944053869346</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5448088164494007</v>
+        <v>0.1518944053869346</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>4.315620670877206</v>
+        <v>6.568282653103847</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-6.766157406220656, 15.397398747975068]</t>
+          <t>[-1.8971656949451106, 15.033731001152804]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.4369383695092983</v>
+        <v>0.1251223903122303</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4369383695092983</v>
+        <v>0.1251223903122303</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.044052813805617</v>
+        <v>-1.660421342437848</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.169921780440507, 2.0818161528292727]</t>
+          <t>[-3.3648690083494284, 0.04402632347373192]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.5045663202334185</v>
+        <v>0.05595572814988348</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5045663202334185</v>
+        <v>0.05595572814988348</v>
       </c>
       <c r="T4" t="n">
-        <v>17.18306349180332</v>
+        <v>12.95638156387154</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[11.41752212894729, 22.948604854659358]</t>
+          <t>[8.094528713444088, 17.81823441429899]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.094336806785947e-07</v>
+        <v>2.682908767592806e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>3.094336806785947e-07</v>
+        <v>2.682908767592806e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>4.318658658658766</v>
+        <v>6.799519519519674</v>
       </c>
       <c r="Y4" t="n">
-        <v>-8.611301301301507</v>
+        <v>-0.1802902902902979</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.24861861861904</v>
+        <v>13.77932932932965</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.99000000000062</v>
+        <v>25.73000000000058</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.006798815429950755</v>
+        <v>0.04624078557834865</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006798815429950755</v>
+        <v>0.04624078557834865</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>9.968810590963621</v>
+        <v>8.459006639454344</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[2.7223123105511355, 17.215308871376106]</t>
+          <t>[0.6789713600100669, 16.23904191889862]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.008101082464849751</v>
+        <v>0.03375782484802436</v>
       </c>
       <c r="O5" t="n">
-        <v>0.008101082464849751</v>
+        <v>0.03375782484802436</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.956053147521927</v>
+        <v>-3.081842643161158</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.8365796169965445, -2.0755266780473103]</t>
+          <t>[-4.377474448245237, -1.7862108380770794]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.301644941304914e-08</v>
+        <v>1.839702291817069e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>2.301644941304914e-08</v>
+        <v>1.839702291817069e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>12.29101024634204</v>
+        <v>14.82409801705776</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[8.214575776806178, 16.3674447158779]</t>
+          <t>[10.284345819953591, 19.363850214161936]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.434347410318338e-07</v>
+        <v>4.332854008914921e-08</v>
       </c>
       <c r="W5" t="n">
-        <v>2.434347410318338e-07</v>
+        <v>4.332854008914921e-08</v>
       </c>
       <c r="X5" t="n">
-        <v>12.22752752752782</v>
+        <v>12.62032032032061</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.585285285285487</v>
+        <v>7.3146346346348</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.86976976977015</v>
+        <v>17.92600600600641</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.99000000000062</v>
+        <v>25.73000000000058</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3872873821718004</v>
+        <v>0.4177761444968628</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3872873821718004</v>
+        <v>0.4177761444968628</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4.082526523863942</v>
+        <v>5.204360665291339</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-3.9548179065552596, 12.119870954283144]</t>
+          <t>[-5.645062616809526, 16.053783947392205]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.3117512250761401</v>
+        <v>0.3391352884269776</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3117512250761401</v>
+        <v>0.3391352884269776</v>
       </c>
       <c r="P6" t="n">
-        <v>2.55981623625835</v>
+        <v>-2.364842518017542</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.5597632555945768, 5.6793957281112775]</t>
+          <t>[-5.497000959434392, 0.767315923399309]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1053528884232131</v>
+        <v>0.1353341327823774</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1053528884232131</v>
+        <v>0.1353341327823774</v>
       </c>
       <c r="T6" t="n">
-        <v>11.53673594742585</v>
+        <v>17.23578479346313</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.3113457347724085, 15.762126160079283]</t>
+          <t>[11.782422779016645, 22.689146807909605]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.718181221521675e-06</v>
+        <v>8.929752381980904e-08</v>
       </c>
       <c r="W6" t="n">
-        <v>1.718181221521675e-06</v>
+        <v>8.929752381980904e-08</v>
       </c>
       <c r="X6" t="n">
-        <v>15.40148148148185</v>
+        <v>9.684164164164383</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.4975375375376</v>
+        <v>-3.142202202202274</v>
       </c>
       <c r="Z6" t="n">
-        <v>28.3054254254261</v>
+        <v>22.51053053053104</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.99000000000062</v>
+        <v>25.73000000000058</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1236724174747285</v>
+        <v>0.4000519368547175</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1236724174747285</v>
+        <v>0.4000519368547175</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.745631365782188</v>
+        <v>4.335722344331831</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.957886712233055, 13.449149443797431]</t>
+          <t>[-4.00918833048633, 12.680633019149992]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1400285482048014</v>
+        <v>0.3009384890569233</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1400285482048014</v>
+        <v>0.3009384890569233</v>
       </c>
       <c r="P7" t="n">
-        <v>2.635289933641888</v>
+        <v>2.748500479717197</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.2956053147521924, 5.566185182035969]</t>
+          <t>[-0.38994743648161556, 5.886948395916009]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.07682507320090215</v>
+        <v>0.08454481195123598</v>
       </c>
       <c r="S7" t="n">
-        <v>0.07682507320090215</v>
+        <v>0.08454481195123598</v>
       </c>
       <c r="T7" t="n">
-        <v>14.9641044051303</v>
+        <v>11.38200469029026</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[11.034747252879846, 18.89346155738076]</t>
+          <t>[6.8938949609039994, 15.870114419676518]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.045173503300134e-09</v>
+        <v>6.418636561811297e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.045173503300134e-09</v>
+        <v>6.418636561811297e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>15.08928928928965</v>
+        <v>14.47473473473506</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.965825825825899</v>
+        <v>1.622612612612649</v>
       </c>
       <c r="Z7" t="n">
-        <v>27.21275275275341</v>
+        <v>27.32685685685748</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.99000000000062</v>
+        <v>25.73000000000058</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06096239578743723</v>
+        <v>0.6115400348959719</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06096239578743723</v>
+        <v>0.6115400348959719</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>7.366985411856177</v>
+        <v>3.579244584950415</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.524339366719456, 15.25831019043181]</t>
+          <t>[-5.673816548749891, 12.832305718650723]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.06655262709277476</v>
+        <v>0.4400046642145576</v>
       </c>
       <c r="O8" t="n">
-        <v>0.06655262709277476</v>
+        <v>0.4400046642145576</v>
       </c>
       <c r="P8" t="n">
-        <v>1.792500312859041</v>
+        <v>-2.629000458859927</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.2704474156243464, 3.3145532100937363]</t>
+          <t>[-5.767448375058739, 0.5094474573388856]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.02203027584900386</v>
+        <v>0.09849279007897094</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02203027584900386</v>
+        <v>0.09849279007897094</v>
       </c>
       <c r="T8" t="n">
-        <v>14.8830890851867</v>
+        <v>14.89721032671989</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[10.39290640149969, 19.373271768873717]</t>
+          <t>[9.947708992730291, 19.84671166070948]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.086390121254112e-08</v>
+        <v>2.524813120796665e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>3.086390121254112e-08</v>
+        <v>2.524813120796665e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>18.57543543543588</v>
+        <v>10.76590590590615</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.27955955955985</v>
+        <v>-2.086216216216265</v>
       </c>
       <c r="Z8" t="n">
-        <v>24.87131131131191</v>
+        <v>23.61802802802856</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.41000000000038</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01206036751368655</v>
+        <v>0.1972419342483075</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01206036751368655</v>
+        <v>0.1972419342483075</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>10.17748285675201</v>
+        <v>6.263827159303062</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[1.3944401040369137, 18.960525609467105]</t>
+          <t>[-2.870493690099666, 15.39814800870579]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.02412761557525123</v>
+        <v>0.1740490337142737</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02412761557525123</v>
+        <v>0.1740490337142737</v>
       </c>
       <c r="P9" t="n">
-        <v>2.157289850212811</v>
+        <v>2.484342538874811</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.1635528346628856, 3.151026865762736]</t>
+          <t>[-0.6163685286322318, 5.585053606381854]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>7.183664818111168e-05</v>
+        <v>0.1135766847836717</v>
       </c>
       <c r="S9" t="n">
-        <v>7.183664818111168e-05</v>
+        <v>0.1135766847836717</v>
       </c>
       <c r="T9" t="n">
-        <v>14.3379687737666</v>
+        <v>14.57507059333473</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[9.676192056687555, 18.999745490845655]</t>
+          <t>[9.717698758776613, 19.432442427892845]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.60423324402359e-07</v>
+        <v>2.690581957232041e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>1.60423324402359e-07</v>
+        <v>2.690581957232041e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>16.02898898898924</v>
+        <v>14.74026026026049</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.16834834834853</v>
+        <v>2.708888888888932</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.88962962962994</v>
+        <v>26.77163163163204</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.41000000000038</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6497536582505803</v>
+        <v>0.1033446231017542</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6497536582505803</v>
+        <v>0.1033446231017542</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>3.576365327017659</v>
+        <v>8.630167181353993</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-6.756792516835165, 13.909523170870482]</t>
+          <t>[-1.058040527195697, 18.318374889903684]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.4893305810092272</v>
+        <v>0.07951016790290244</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4893305810092272</v>
+        <v>0.07951016790290244</v>
       </c>
       <c r="P10" t="n">
-        <v>2.660447832769734</v>
+        <v>1.591237119836271</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.4780000834290776, 5.798895748968546]</t>
+          <t>[0.11950002085726918, 3.062974218815273]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.09464958455957495</v>
+        <v>0.03471500659321003</v>
       </c>
       <c r="S10" t="n">
-        <v>0.09464958455957495</v>
+        <v>0.03471500659321003</v>
       </c>
       <c r="T10" t="n">
-        <v>13.92863711769652</v>
+        <v>13.84651548690181</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[8.493621573257428, 19.363652662135614]</t>
+          <t>[8.180437463578844, 19.512593510224768]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>5.360084189609537e-06</v>
+        <v>1.19226894756963e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>5.360084189609537e-06</v>
+        <v>1.19226894756963e-05</v>
       </c>
       <c r="X10" t="n">
-        <v>14.07423423423445</v>
+        <v>18.20568568568596</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.881451451451484</v>
+        <v>12.49505505505525</v>
       </c>
       <c r="Z10" t="n">
-        <v>26.26701701701742</v>
+        <v>23.91631631631668</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.41000000000038</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03488940055980616</v>
+        <v>0.02499182444089931</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03488940055980616</v>
+        <v>0.02499182444089931</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>10.23738698049279</v>
+        <v>7.068916448899532</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0.11182352278538588, 20.362950438200194]</t>
+          <t>[0.24011046335190045, 13.897722434447163]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.04762617111817979</v>
+        <v>0.04278017344429741</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04762617111817979</v>
+        <v>0.04278017344429741</v>
       </c>
       <c r="P11" t="n">
-        <v>2.006342455445734</v>
+        <v>2.345974093671657</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.5471843060306538, 3.4655006048608135]</t>
+          <t>[1.50318447288881, 3.1887637144545034]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.008129843515233048</v>
+        <v>1.194219149347475e-06</v>
       </c>
       <c r="S11" t="n">
-        <v>0.008129843515233048</v>
+        <v>1.194219149347475e-06</v>
       </c>
       <c r="T11" t="n">
-        <v>17.02877291082269</v>
+        <v>13.70166544819072</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[11.579404110800446, 22.47814171084493]</t>
+          <t>[10.14132035150768, 17.26201054487376]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.142131105247302e-07</v>
+        <v>7.957399184022051e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>1.142131105247302e-07</v>
+        <v>7.957399184022051e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>16.61541541541567</v>
+        <v>15.27715715715739</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.94662662662679</v>
+        <v>12.00696696696716</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.28420420420455</v>
+        <v>18.54734734734763</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.41000000000038</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.26764420314493</v>
+        <v>0.1032186183284136</v>
       </c>
       <c r="I12" t="n">
-        <v>0.26764420314493</v>
+        <v>0.1032186183284136</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>5.454940054207331</v>
+        <v>8.347767463108028</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-2.8798101956722206, 13.789690304086882]</t>
+          <t>[-1.9457161306254775, 18.641251056841533]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1941096119490644</v>
+        <v>0.1093654711467971</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1941096119490644</v>
+        <v>0.1093654711467971</v>
       </c>
       <c r="P12" t="n">
-        <v>1.654131867655887</v>
+        <v>2.182447749340657</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.459158149415079, 4.767421884726853]</t>
+          <t>[-0.6918422260157708, 5.056737724697085]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.2902719285324242</v>
+        <v>0.1331877998710298</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2902719285324242</v>
+        <v>0.1331877998710298</v>
       </c>
       <c r="T12" t="n">
-        <v>12.81575843367258</v>
+        <v>15.77058854573799</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[8.062645620777253, 17.56887124656791]</t>
+          <t>[10.309193296475094, 21.23198379500089]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.167061083691024e-06</v>
+        <v>5.851655451305504e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>2.167061083691024e-06</v>
+        <v>5.851655451305504e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>17.98374374374402</v>
+        <v>15.91167167167192</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.888698698698789</v>
+        <v>4.758858858858932</v>
       </c>
       <c r="Z12" t="n">
-        <v>30.07878878878925</v>
+        <v>27.0644844844849</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.41000000000038</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2218567715000042</v>
+        <v>0.4465097247377168</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2218567715000042</v>
+        <v>0.4465097247377168</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>5.763397807077428</v>
+        <v>5.001766328331279</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-3.2331262175781834, 14.75992183173304]</t>
+          <t>[-5.165873697323401, 15.16940635398596]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.2035426704477121</v>
+        <v>0.3270822606842252</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2035426704477121</v>
+        <v>0.3270822606842252</v>
       </c>
       <c r="P13" t="n">
-        <v>2.446605690183042</v>
+        <v>1.855395060678656</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.6792632764518469, 5.572474656817931]</t>
+          <t>[-1.2704739059562327, 4.981264027313546]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.1219314539099863</v>
+        <v>0.2381562100039811</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1219314539099863</v>
+        <v>0.2381562100039811</v>
       </c>
       <c r="T13" t="n">
-        <v>12.57831477806712</v>
+        <v>16.88187112750275</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[7.929460369409007, 17.22716918672524]</t>
+          <t>[11.287199661315672, 22.47654259368983]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.032737773882687e-06</v>
+        <v>2.395193996473921e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>2.032737773882687e-06</v>
+        <v>2.395193996473921e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>14.90500500500523</v>
+        <v>17.18070070070096</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.761091091091135</v>
+        <v>5.051711711711789</v>
       </c>
       <c r="Z13" t="n">
-        <v>27.04891891891933</v>
+        <v>29.30968968969014</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.41000000000038</v>
+        <v>24.38000000000037</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1054461470195678</v>
+        <v>0.5141420459001139</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1054461470195678</v>
+        <v>0.5141420459001139</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>6.668508738002448</v>
+        <v>4.1073042727351</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-1.4578979515792874, 14.794915427584183]</t>
+          <t>[-5.560723685520521, 13.77533223099072]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1053393106543585</v>
+        <v>0.3967196131218853</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1053393106543585</v>
+        <v>0.3967196131218853</v>
       </c>
       <c r="P14" t="n">
-        <v>1.83023716155081</v>
+        <v>2.056658253701427</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.08176317216550011, 3.578711150936119]</t>
+          <t>[-1.0755001877154236, 5.188816695118277]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.04060663041002832</v>
+        <v>0.192679506253933</v>
       </c>
       <c r="S14" t="n">
-        <v>0.04060663041002832</v>
+        <v>0.192679506253933</v>
       </c>
       <c r="T14" t="n">
-        <v>12.90102066969793</v>
+        <v>12.51795350619663</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[8.50185630993167, 17.300185029464195]</t>
+          <t>[7.457094372430916, 17.578812639962337]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>4.296310900375744e-07</v>
+        <v>9.77188500228543e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>4.296310900375744e-07</v>
+        <v>9.77188500228543e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>17.29957957957985</v>
+        <v>16.39975975976001</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.50680680680697</v>
+        <v>4.246366366366432</v>
       </c>
       <c r="Z14" t="n">
-        <v>24.09235235235272</v>
+        <v>28.55315315315359</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_0_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_0_sawtooth_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.73000000000058</v>
+        <v>25.8600000000006</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3764005478658895</v>
+        <v>0.02432206520472036</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3764005478658895</v>
+        <v>0.02432206520472036</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>4.577578995159337</v>
+        <v>9.134579959420527</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-4.5567050361605475, 13.711863026479222]</t>
+          <t>[0.4826105509931402, 17.786549367847915]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.3182020900163158</v>
+        <v>0.03898452758868709</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3182020900163158</v>
+        <v>0.03898452758868709</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.5031579825569237</v>
+        <v>-1.232737057264464</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.641605898755736, 2.6352899336418885]</t>
+          <t>[-2.6290004588599265, 0.16352634433099933]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.7482648491358694</v>
+        <v>0.08212517332869251</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7482648491358694</v>
+        <v>0.08212517332869251</v>
       </c>
       <c r="T2" t="n">
-        <v>12.1496260554843</v>
+        <v>15.55963744086374</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.526854231484894, 16.772397879483712]</t>
+          <t>[10.793742243234268, 20.3255326384932]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.442033573719527e-06</v>
+        <v>4.351126081658663e-08</v>
       </c>
       <c r="W2" t="n">
-        <v>3.442033573719527e-06</v>
+        <v>4.351126081658663e-08</v>
       </c>
       <c r="X2" t="n">
-        <v>2.060460460460508</v>
+        <v>5.073633633633754</v>
       </c>
       <c r="Y2" t="n">
-        <v>-10.79166166166191</v>
+        <v>-0.6730330330330432</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.91258258258292</v>
+        <v>10.82030030030055</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.73000000000058</v>
+        <v>25.8600000000006</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06827688251845399</v>
+        <v>0.291614557183798</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06827688251845399</v>
+        <v>0.291614557183798</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>9.032108380839528</v>
+        <v>4.969666348360052</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.2591578434518844, 19.32337460513094]</t>
+          <t>[-3.150166151434032, 13.089498848154136]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.08389561980306026</v>
+        <v>0.2240843898367435</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08389561980306026</v>
+        <v>0.2240843898367435</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.012631930227695</v>
+        <v>-1.823947686768848</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.798842768304774, -0.22642109215061534]</t>
+          <t>[-4.842895582110392, 1.1950002085726954]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.02808499684366628</v>
+        <v>0.2300033794337566</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02808499684366628</v>
+        <v>0.2300033794337566</v>
       </c>
       <c r="T3" t="n">
-        <v>12.97382987083287</v>
+        <v>15.09472065543582</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.545155841381632, 18.402503900284117]</t>
+          <t>[10.553749956177047, 19.6356913546946]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.707455987998152e-05</v>
+        <v>2.890043271364107e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>1.707455987998152e-05</v>
+        <v>2.890043271364107e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>8.241841841842028</v>
+        <v>7.50690690690708</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9272072072072284</v>
+        <v>-4.918318318318439</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.55647647647683</v>
+        <v>19.9321321321326</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.73000000000058</v>
+        <v>25.8600000000006</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1518944053869346</v>
+        <v>0.7052416929673677</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1518944053869346</v>
+        <v>0.7052416929673677</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>6.568282653103847</v>
+        <v>3.132496501137712</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.8971656949451106, 15.033731001152804]</t>
+          <t>[-7.033478008284863, 13.298471010560288]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1251223903122303</v>
+        <v>0.5379826969839119</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1251223903122303</v>
+        <v>0.5379826969839119</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.660421342437848</v>
+        <v>-2.088105627611234</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.3648690083494284, 0.04402632347373192]</t>
+          <t>[-5.220264069028085, 1.0440528138056173]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.05595572814988348</v>
+        <v>0.1860917623651461</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05595572814988348</v>
+        <v>0.1860917623651461</v>
       </c>
       <c r="T4" t="n">
-        <v>12.95638156387154</v>
+        <v>15.57695029103358</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[8.094528713444088, 17.81823441429899]</t>
+          <t>[10.254065173779123, 20.899835408288027]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.682908767592806e-06</v>
+        <v>4.483304618663198e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>2.682908767592806e-06</v>
+        <v>4.483304618663198e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>6.799519519519674</v>
+        <v>8.594114114114316</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.1802902902902979</v>
+        <v>-4.297057057057158</v>
       </c>
       <c r="Z4" t="n">
-        <v>13.77932932932965</v>
+        <v>21.48528528528579</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.73000000000058</v>
+        <v>25.8600000000006</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04624078557834865</v>
+        <v>0.5101569312484172</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04624078557834865</v>
+        <v>0.5101569312484172</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>8.459006639454344</v>
+        <v>4.074371068528926</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0.6789713600100669, 16.23904191889862]</t>
+          <t>[-4.833019377441339, 12.98176151449919]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.03375782484802436</v>
+        <v>0.3618169851285298</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03375782484802436</v>
+        <v>0.3618169851285298</v>
       </c>
       <c r="P5" t="n">
-        <v>-3.081842643161158</v>
+        <v>-2.943474197958004</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-4.377474448245237, -1.7862108380770794]</t>
+          <t>[-6.075632639374855, 0.18868424345884627]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.839702291817069e-05</v>
+        <v>0.06483082825092001</v>
       </c>
       <c r="S5" t="n">
-        <v>1.839702291817069e-05</v>
+        <v>0.06483082825092001</v>
       </c>
       <c r="T5" t="n">
-        <v>14.82409801705776</v>
+        <v>13.52134765926367</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[10.284345819953591, 19.363850214161936]</t>
+          <t>[8.743997241790137, 18.2986980767372]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.332854008914921e-08</v>
+        <v>8.672596745196159e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>4.332854008914921e-08</v>
+        <v>8.672596745196159e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>12.62032032032061</v>
+        <v>12.11459459459488</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.3146346346348</v>
+        <v>-0.7765765765765948</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.92600600600641</v>
+        <v>25.00576576576635</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.73000000000058</v>
+        <v>25.8600000000006</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4177761444968628</v>
+        <v>0.07810168273092766</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4177761444968628</v>
+        <v>0.07810168273092766</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>5.204360665291339</v>
+        <v>7.73332046807676</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-5.645062616809526, 16.053783947392205]</t>
+          <t>[-0.13012659490147271, 15.596767531054994]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.3391352884269776</v>
+        <v>0.05374871943024484</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3391352884269776</v>
+        <v>0.05374871943024484</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.364842518017542</v>
+        <v>-3.081842643161159</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-5.497000959434392, 0.767315923399309]</t>
+          <t>[-4.503263943884468, -1.6604213424378487]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1353341327823774</v>
+        <v>7.312259160863199e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1353341327823774</v>
+        <v>7.312259160863199e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>17.23578479346313</v>
+        <v>11.79573178328302</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[11.782422779016645, 22.689146807909605]</t>
+          <t>[7.217326866820542, 16.374136699745506]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>8.929752381980904e-08</v>
+        <v>4.888816045323097e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>8.929752381980904e-08</v>
+        <v>4.888816045323097e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>9.684164164164383</v>
+        <v>12.68408408408438</v>
       </c>
       <c r="Y6" t="n">
-        <v>-3.142202202202274</v>
+        <v>6.833873873874036</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.51053053053104</v>
+        <v>18.53429429429473</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.73000000000058</v>
+        <v>25.8600000000006</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4000519368547175</v>
+        <v>0.05726256916570061</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4000519368547175</v>
+        <v>0.05726256916570061</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>4.335722344331831</v>
+        <v>7.24581916841553</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-4.00918833048633, 12.680633019149992]</t>
+          <t>[-0.553406087266179, 15.045044424097238]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.3009384890569233</v>
+        <v>0.06782900420957638</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3009384890569233</v>
+        <v>0.06782900420957638</v>
       </c>
       <c r="P7" t="n">
-        <v>2.748500479717197</v>
+        <v>2.811395227536812</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.38994743648161556, 5.886948395916009]</t>
+          <t>[1.21386863291858, 4.408921822155044]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.08454481195123598</v>
+        <v>0.0009308516739943151</v>
       </c>
       <c r="S7" t="n">
-        <v>0.08454481195123598</v>
+        <v>0.0009308516739943151</v>
       </c>
       <c r="T7" t="n">
-        <v>11.38200469029026</v>
+        <v>12.79477721484908</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.8938949609039994, 15.870114419676518]</t>
+          <t>[8.663268037462693, 16.92628639223546]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>6.418636561811297e-06</v>
+        <v>1.385732648628846e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>6.418636561811297e-06</v>
+        <v>1.385732648628846e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>14.47473473473506</v>
+        <v>14.28900900900934</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.622612612612649</v>
+        <v>7.713993993994176</v>
       </c>
       <c r="Z7" t="n">
-        <v>27.32685685685748</v>
+        <v>20.8640240240245</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.73000000000058</v>
+        <v>25.8600000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6115400348959719</v>
+        <v>0.4765707894962405</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6115400348959719</v>
+        <v>0.4765707894962405</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>3.579244584950415</v>
+        <v>4.667199032620955</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-5.673816548749891, 12.832305718650723]</t>
+          <t>[-5.924050953439146, 15.258449018681056]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.4400046642145576</v>
+        <v>0.3795043500274384</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4400046642145576</v>
+        <v>0.3795043500274384</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.629000458859927</v>
+        <v>2.55981623625835</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-5.767448375058739, 0.5094474573388856]</t>
+          <t>[-0.5723422051584999, 5.6919746776752005]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.09849279007897094</v>
+        <v>0.106718114446714</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09849279007897094</v>
+        <v>0.106718114446714</v>
       </c>
       <c r="T8" t="n">
-        <v>14.89721032671989</v>
+        <v>13.64196695836928</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[9.947708992730291, 19.84671166070948]</t>
+          <t>[8.179045970144813, 19.104887946593752]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.524813120796665e-07</v>
+        <v>8.335018942373651e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>2.524813120796665e-07</v>
+        <v>8.335018942373651e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>10.76590590590615</v>
+        <v>15.3244444444448</v>
       </c>
       <c r="Y8" t="n">
-        <v>-2.086216216216265</v>
+        <v>2.433273273273331</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.61802802802856</v>
+        <v>28.21561561561627</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.38000000000037</v>
+        <v>24.33000000000036</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1972419342483075</v>
+        <v>0.05451028922243728</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1972419342483075</v>
+        <v>0.05451028922243728</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.263827159303062</v>
+        <v>9.740235668734883</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.870493690099666, 15.39814800870579]</t>
+          <t>[-1.0089074778509328, 20.4893788153207]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1740490337142737</v>
+        <v>0.07463383476625052</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1740490337142737</v>
+        <v>0.07463383476625052</v>
       </c>
       <c r="P9" t="n">
-        <v>2.484342538874811</v>
+        <v>2.119553001521042</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.6163685286322318, 5.585053606381854]</t>
+          <t>[0.20755266780473125, 4.031553335237352]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1135766847836717</v>
+        <v>0.03058585731698993</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1135766847836717</v>
+        <v>0.03058585731698993</v>
       </c>
       <c r="T9" t="n">
-        <v>14.57507059333473</v>
+        <v>13.71288937499075</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[9.717698758776613, 19.432442427892845]</t>
+          <t>[8.12799808754335, 19.297780662438157]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.690581957232041e-07</v>
+        <v>1.103303743943407e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>2.690581957232041e-07</v>
+        <v>1.103303743943407e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>14.74026026026049</v>
+        <v>16.12258258258282</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.708888888888932</v>
+        <v>8.718858858858988</v>
       </c>
       <c r="Z9" t="n">
-        <v>26.77163163163204</v>
+        <v>23.52630630630666</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.38000000000037</v>
+        <v>24.33000000000036</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1033446231017542</v>
+        <v>0.2493585237382445</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1033446231017542</v>
+        <v>0.2493585237382445</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>8.630167181353993</v>
+        <v>5.515542114321753</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-1.058040527195697, 18.318374889903684]</t>
+          <t>[-3.418454445195125, 14.449538673838632]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.07951016790290244</v>
+        <v>0.2201456454899449</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07951016790290244</v>
+        <v>0.2201456454899449</v>
       </c>
       <c r="P10" t="n">
-        <v>1.591237119836271</v>
+        <v>2.358553043235581</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.11950002085726918, 3.062974218815273]</t>
+          <t>[-0.779894872963232, 5.497000959434394]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.03471500659321003</v>
+        <v>0.1371185952733294</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03471500659321003</v>
+        <v>0.1371185952733294</v>
       </c>
       <c r="T10" t="n">
-        <v>13.84651548690181</v>
+        <v>14.41059587728329</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[8.180437463578844, 19.512593510224768]</t>
+          <t>[9.766056709106543, 19.055135045460034]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.19226894756963e-05</v>
+        <v>1.331219208200451e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>1.19226894756963e-05</v>
+        <v>1.331219208200451e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>18.20568568568596</v>
+        <v>15.19711711711734</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.49505505505525</v>
+        <v>3.044294294294334</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.91631631631668</v>
+        <v>27.34993993994035</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.38000000000037</v>
+        <v>24.33000000000036</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02499182444089931</v>
+        <v>0.2997014582288055</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02499182444089931</v>
+        <v>0.2997014582288055</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>7.068916448899532</v>
+        <v>5.023427797545127</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0.24011046335190045, 13.897722434447163]</t>
+          <t>[-3.5520093389745426, 13.598864934064796]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.04278017344429741</v>
+        <v>0.2442608949975964</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04278017344429741</v>
+        <v>0.2442608949975964</v>
       </c>
       <c r="P11" t="n">
-        <v>2.345974093671657</v>
+        <v>1.956026657190042</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.50318447288881, 3.1887637144545034]</t>
+          <t>[-1.1761317842268095, 5.088185098606893]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.194219149347475e-06</v>
+        <v>0.2149508666529132</v>
       </c>
       <c r="S11" t="n">
-        <v>1.194219149347475e-06</v>
+        <v>0.2149508666529132</v>
       </c>
       <c r="T11" t="n">
-        <v>13.70166544819072</v>
+        <v>12.31465804117729</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[10.14132035150768, 17.26201054487376]</t>
+          <t>[7.745017864600751, 16.884298217753834]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>7.957399184022051e-10</v>
+        <v>2.187847265799903e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>7.957399184022051e-10</v>
+        <v>2.187847265799903e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>15.27715715715739</v>
+        <v>16.75579579579605</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.00696696696716</v>
+        <v>4.627327327327395</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.54734734734763</v>
+        <v>28.8842642642647</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.38000000000037</v>
+        <v>24.33000000000036</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1032186183284136</v>
+        <v>0.5927993828940332</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1032186183284136</v>
+        <v>0.5927993828940332</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>8.347767463108028</v>
+        <v>2.875964228880134</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-1.9457161306254775, 18.641251056841533]</t>
+          <t>[-4.5514717609585915, 10.30340021871886]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1093654711467971</v>
+        <v>0.4395458162722663</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1093654711467971</v>
+        <v>0.4395458162722663</v>
       </c>
       <c r="P12" t="n">
-        <v>2.182447749340657</v>
+        <v>1.666710817219811</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.6918422260157708, 5.056737724697085]</t>
+          <t>[-1.452868674633116, 4.786290309072738]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.1331877998710298</v>
+        <v>0.2876254966088987</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1331877998710298</v>
+        <v>0.2876254966088987</v>
       </c>
       <c r="T12" t="n">
-        <v>15.77058854573799</v>
+        <v>11.68792001922946</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[10.309193296475094, 21.23198379500089]</t>
+          <t>[7.678944200996812, 15.696895837462103]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>5.851655451305504e-07</v>
+        <v>4.834583735568998e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>5.851655451305504e-07</v>
+        <v>4.834583735568998e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>15.91167167167192</v>
+        <v>17.87609609609636</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.758858858858932</v>
+        <v>5.796336336336422</v>
       </c>
       <c r="Z12" t="n">
-        <v>27.0644844844849</v>
+        <v>29.9558558558563</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.38000000000037</v>
+        <v>24.33000000000036</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4465097247377168</v>
+        <v>0.425276631323781</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4465097247377168</v>
+        <v>0.425276631323781</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>5.001766328331279</v>
+        <v>4.373656255344681</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-5.165873697323401, 15.16940635398596]</t>
+          <t>[-4.448901679522203, 13.196214190211565]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.3270822606842252</v>
+        <v>0.3233939445222282</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3270822606842252</v>
+        <v>0.3233939445222282</v>
       </c>
       <c r="P13" t="n">
-        <v>1.855395060678656</v>
+        <v>1.251605481610349</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.2704739059562327, 4.981264027313546]</t>
+          <t>[-1.8491055858966945, 4.352316549117392]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.2381562100039811</v>
+        <v>0.4205015389810824</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2381562100039811</v>
+        <v>0.4205015389810824</v>
       </c>
       <c r="T13" t="n">
-        <v>16.88187112750275</v>
+        <v>15.31634066576073</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[11.287199661315672, 22.47654259368983]</t>
+          <t>[10.581831624747878, 20.050849706773583]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.395193996473921e-07</v>
+        <v>5.342175946054795e-08</v>
       </c>
       <c r="W13" t="n">
-        <v>2.395193996473921e-07</v>
+        <v>5.342175946054795e-08</v>
       </c>
       <c r="X13" t="n">
-        <v>17.18070070070096</v>
+        <v>19.48348348348377</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.051711711711789</v>
+        <v>7.476786786786898</v>
       </c>
       <c r="Z13" t="n">
-        <v>29.30968968969014</v>
+        <v>31.49018018018065</v>
       </c>
     </row>
     <row r="14">
@@ -1597,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.38000000000037</v>
+        <v>24.33000000000036</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5141420459001139</v>
+        <v>0.02091668526961477</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5141420459001139</v>
+        <v>0.02091668526961477</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>4.1073042727351</v>
+        <v>8.98915203380998</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-5.560723685520521, 13.77533223099072]</t>
+          <t>[0.9527932129379444, 17.025510854682015]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.3967196131218853</v>
+        <v>0.02918785296314708</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3967196131218853</v>
+        <v>0.02918785296314708</v>
       </c>
       <c r="P14" t="n">
-        <v>2.056658253701427</v>
+        <v>2.106974051957119</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-1.0755001877154236, 5.188816695118277]</t>
+          <t>[0.8868159442565791, 3.3271321596576584]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.192679506253933</v>
+        <v>0.001132477687713296</v>
       </c>
       <c r="S14" t="n">
-        <v>0.192679506253933</v>
+        <v>0.001132477687713296</v>
       </c>
       <c r="T14" t="n">
-        <v>12.51795350619663</v>
+        <v>12.71940736788746</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[7.457094372430916, 17.578812639962337]</t>
+          <t>[8.29292840205742, 17.14588633371751]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9.77188500228543e-06</v>
+        <v>6.449426503962741e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>9.77188500228543e-06</v>
+        <v>6.449426503962741e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>16.39975975976001</v>
+        <v>16.17129129129153</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.246366366366432</v>
+        <v>11.44654654654672</v>
       </c>
       <c r="Z14" t="n">
-        <v>28.55315315315359</v>
+        <v>20.89603603603634</v>
       </c>
     </row>
   </sheetData>
